--- a/data/Suivi_terrain/Saisie_suivi_terrain_chronique.xlsx
+++ b/data/Suivi_terrain/Saisie_suivi_terrain_chronique.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Fixe-FD39/Nextcloud_FD/NAS-JB/Outils/Physico-chimie/Thermie/Fiches_notices/Saisie suivi terrain/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Fixe-FD39/Nextcloud_FD/NAS-JB/Outils/Physico-chimie/Thermie/Fiches_notices/Notice/notice-thermie/data/Suivi_terrain/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DAE0C31-0E62-DA43-A726-AD6D3A69A8AE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F2F6E6A-9895-474F-9B08-504F04FC570B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="4840" windowWidth="28800" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,13 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>2018-10-30</t>
-  </si>
-  <si>
-    <t>Version8</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>chsvi_mo</t>
   </si>
@@ -525,40 +519,40 @@
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -1014,18 +1008,16 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>0</v>
-      </c>
+      <c r="A1">
+        <v>20201218</v>
+      </c>
+      <c r="B1" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
